--- a/Final Project/UserAccpetReject.xlsx
+++ b/Final Project/UserAccpetReject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013C113E-ABDA-CD45-B38A-E98154A4DF93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9547545-414B-7048-81FA-F6CD15BD5FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="460" windowWidth="24240" windowHeight="12800" xr2:uid="{D35DCB0C-56A7-7A40-BA2C-8126210FB4E7}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="24240" windowHeight="12800" xr2:uid="{D35DCB0C-56A7-7A40-BA2C-8126210FB4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Chat</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>Of course. It is for me</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
+    <t>it is not correct</t>
+  </si>
+  <si>
+    <t>It is correct</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Not Correct</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>That is correct</t>
+  </si>
+  <si>
+    <t>That is not correct</t>
+  </si>
+  <si>
+    <t>That is incorrect</t>
   </si>
 </sst>
 </file>
@@ -493,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9950B48B-8FE5-AB42-B309-A32845CA2644}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,264 +547,328 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/UserAccpetReject.xlsx
+++ b/Final Project/UserAccpetReject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9547545-414B-7048-81FA-F6CD15BD5FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3302D-CD75-C143-98EC-B65EAC2F5741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="24240" windowHeight="12800" xr2:uid="{D35DCB0C-56A7-7A40-BA2C-8126210FB4E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>Chat</t>
   </si>
@@ -169,6 +169,69 @@
   </si>
   <si>
     <t>That is incorrect</t>
+  </si>
+  <si>
+    <t>Absolutely</t>
+  </si>
+  <si>
+    <t>It is right</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>It is true</t>
+  </si>
+  <si>
+    <t>this is not true</t>
+  </si>
+  <si>
+    <t>Not true</t>
+  </si>
+  <si>
+    <t>it is accurate</t>
+  </si>
+  <si>
+    <t>This is accurate</t>
+  </si>
+  <si>
+    <t>Absolutely correct</t>
+  </si>
+  <si>
+    <t>This is wrong</t>
+  </si>
+  <si>
+    <t>It is wrong</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>This is false</t>
+  </si>
+  <si>
+    <t>It is false</t>
+  </si>
+  <si>
+    <t>It's false</t>
+  </si>
+  <si>
+    <t>It is inaccurate</t>
+  </si>
+  <si>
+    <t>Inaccurate</t>
+  </si>
+  <si>
+    <t>this is inaccurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False </t>
+  </si>
+  <si>
+    <t xml:space="preserve">True </t>
+  </si>
+  <si>
+    <t>definitely</t>
   </si>
 </sst>
 </file>
@@ -204,10 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9950B48B-8FE5-AB42-B309-A32845CA2644}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +731,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>35</v>
@@ -673,7 +739,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -681,7 +747,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -689,95 +755,95 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
+      <c r="A21" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="A22" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>13</v>
+      <c r="A23" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -785,7 +851,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -793,7 +859,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -801,7 +867,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -809,7 +875,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
@@ -817,7 +883,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
@@ -825,7 +891,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -833,7 +899,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
@@ -841,7 +907,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
@@ -849,7 +915,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>36</v>
@@ -857,7 +923,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>36</v>
@@ -865,9 +931,177 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
